--- a/output/CodeSystem-KemkesImmunizationRoutineTimingCS.xlsx
+++ b/output/CodeSystem-KemkesImmunizationRoutineTimingCS.xlsx
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Thomas Chaidir</t>
+    <t>SatuSehat</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>SatuSehat (https://satusehat.kemkes.go.id/, fhir@dto.kemkes.go.id)</t>
   </si>
   <si>
     <t>Description</t>
